--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/ltukei_uw_edu/Documents/Desktop/GitHub/meta-analysis-for-VEGF-signaling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104818815C681A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBAAD599-E87A-4D85-9E00-F8E50A9314F2}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC104818815C681A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A203B5F-5292-40A3-AA0A-CD648597C0EA}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="2400" windowWidth="15570" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-1740" windowWidth="15600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,11 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B17D59F-CF23-483A-8186-6066189E6A2C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +550,9 @@
       <c r="G2" s="2">
         <v>3683838</v>
       </c>
+      <c r="I2">
+        <v>1.544E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -570,6 +576,9 @@
       <c r="G3" s="2">
         <v>2273120</v>
       </c>
+      <c r="I3">
+        <v>2.0179999999999998E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -593,6 +602,9 @@
       <c r="G4" s="2">
         <v>1710383</v>
       </c>
+      <c r="I4">
+        <v>2.6770000000000001E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -616,6 +628,9 @@
       <c r="G5" s="2">
         <v>1102344</v>
       </c>
+      <c r="I5">
+        <v>3.2729999999999999E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -636,8 +651,11 @@
       <c r="F6">
         <v>39</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>615787.69869300001</v>
+      </c>
+      <c r="I6">
+        <v>6.3879999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -662,6 +680,9 @@
       <c r="G7" s="2">
         <v>119397500</v>
       </c>
+      <c r="I7">
+        <v>1.7746000000000001E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -685,6 +706,9 @@
       <c r="G8" s="2">
         <v>87856320</v>
       </c>
+      <c r="I8">
+        <v>9.3930000000000003E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -708,6 +732,9 @@
       <c r="G9" s="2">
         <v>32306270</v>
       </c>
+      <c r="I9">
+        <v>5.6150000000000002E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -731,6 +758,9 @@
       <c r="G10" s="2">
         <v>18378530</v>
       </c>
+      <c r="I10">
+        <v>4.5659999999999997E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -754,6 +784,9 @@
       <c r="G11" s="2">
         <v>6728897</v>
       </c>
+      <c r="I11">
+        <v>2.9239999999999999E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -774,6 +807,12 @@
       <c r="F12">
         <v>0.5</v>
       </c>
+      <c r="G12" s="2">
+        <v>85442310</v>
+      </c>
+      <c r="I12">
+        <v>4.9740000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -794,6 +833,12 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" s="2">
+        <v>45213570</v>
+      </c>
+      <c r="I13">
+        <v>4.5259999999999996E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -814,6 +859,12 @@
       <c r="F14">
         <v>2</v>
       </c>
+      <c r="G14" s="2">
+        <v>24827940</v>
+      </c>
+      <c r="I14">
+        <v>3.8860000000000001E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -834,6 +885,12 @@
       <c r="F15">
         <v>4</v>
       </c>
+      <c r="G15" s="2">
+        <v>14292990</v>
+      </c>
+      <c r="I15">
+        <v>3.8990000000000001E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -853,6 +910,12 @@
       </c>
       <c r="F16">
         <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7195128</v>
+      </c>
+      <c r="I16">
+        <v>3.3540000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/ltukei_uw_edu/Documents/Desktop/GitHub/meta-analysis-for-VEGF-signaling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_F25DC773A252ABDACC104818815C681A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A203B5F-5292-40A3-AA0A-CD648597C0EA}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_F25DC773A252ABDACC104818815C681A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D037E2C-5935-4B73-8606-BB6967F7402A}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-1740" windowWidth="15600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t xml:space="preserve">Reference </t>
   </si>
@@ -112,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,14 +146,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,13 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -468,6 +521,123 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1877103</v>
+      </c>
+      <c r="G2">
+        <f>969533.949486/SQRT(5)</f>
+        <v>433588.76350890863</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <f>0.001559/SQRT(5)</f>
+        <v>6.9720599538443439E-4</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2/F2</f>
+        <v>1.6940998975549024E-9</v>
+      </c>
+      <c r="K2" s="2">
+        <f>_xlfn.STDEV.P(Sheet2!K2:K6)/SQRT(5)</f>
+        <v>1.6402259694207648E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>55473110</v>
+      </c>
+      <c r="G3" s="2">
+        <f>42530440/SQRT(5)</f>
+        <v>19020190.990595229</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.0490000000000006E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <f>0.004833/SQRT(5)</f>
+        <v>2.1613833070512965E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J4" si="0">H3/F3</f>
+        <v>1.4509732733571276E-10</v>
+      </c>
+      <c r="K3" s="2">
+        <f>_xlfn.STDEV.P(Sheet2!K7:K11)/SQRT(5)</f>
+        <v>5.1700620440230326E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>35767540</v>
+      </c>
+      <c r="G4" s="2">
+        <f>26221830/SQRT(5)</f>
+        <v>11726758.874888662</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.1279999999999997E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <f>0.000514/SQRT(5)</f>
+        <v>2.2986778808697838E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1541190699723826E-10</v>
+      </c>
+      <c r="K4" s="2">
+        <f>_xlfn.STDEV.P(Sheet2!K12:K16)/SQRT(5)</f>
+        <v>6.5583124434488832E-11</v>
       </c>
     </row>
   </sheetData>
@@ -479,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B17D59F-CF23-483A-8186-6066189E6A2C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,264 +699,352 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="11">
         <v>3683838</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="12">
+        <f>_xlfn.STDEV.P(G2:G6)/SQRT(5)</f>
+        <v>474977.22808354895</v>
+      </c>
+      <c r="I2" s="10">
         <v>1.544E-3</v>
       </c>
+      <c r="J2" s="3">
+        <f>_xlfn.STDEV.P(I2:I6)/SQRT(5)</f>
+        <v>7.6366647170083353E-4</v>
+      </c>
+      <c r="K2" s="11">
+        <f>I2/G2</f>
+        <v>4.191280941235744E-10</v>
+      </c>
+      <c r="L2" s="12">
+        <f>_xlfn.STDEV.P(K2:K6)/SQRT(5)</f>
+        <v>1.6402259694207648E-9</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>2273120</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="6"/>
+      <c r="I3" s="4">
         <v>2.0179999999999998E-3</v>
       </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K16" si="0">I3/G3</f>
+        <v>8.8776659393256835E-10</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>1710383</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="6"/>
+      <c r="I4" s="4">
         <v>2.6770000000000001E-3</v>
       </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5651465198145679E-9</v>
+      </c>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
         <v>19.5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>1102344</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="6"/>
+      <c r="I5" s="4">
         <v>3.2729999999999999E-3</v>
       </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9691276044501532E-9</v>
+      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7">
         <v>39</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>615787.69869300001</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="9"/>
+      <c r="I6" s="7">
         <v>6.3879999999999996E-3</v>
       </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0373705115510478E-8</v>
+      </c>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>119397500</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="12">
+        <f>_xlfn.STDEV.P(G7:G11)/SQRT(5)</f>
+        <v>19381909.66887809</v>
+      </c>
+      <c r="I7" s="4">
         <v>1.7746000000000001E-2</v>
       </c>
+      <c r="J7" s="3">
+        <f t="shared" ref="J7" si="1">_xlfn.STDEV.P(I7:I11)/SQRT(5)</f>
+        <v>2.3677788308877146E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4862957767122428E-10</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7" si="2">_xlfn.STDEV.P(K7:K11)/SQRT(5)</f>
+        <v>5.1700620440230326E-11</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>87856320</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="6"/>
+      <c r="I8" s="4">
         <v>9.3930000000000003E-3</v>
       </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0691319645530339E-10</v>
+      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>32306270</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="6"/>
+      <c r="I9" s="4">
         <v>5.6150000000000002E-3</v>
       </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7380527061774697E-10</v>
+      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>18378530</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="6"/>
+      <c r="I10" s="4">
         <v>4.5659999999999997E-3</v>
       </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4844206799999783E-10</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>6728897</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="9"/>
+      <c r="I11" s="7">
         <v>2.9239999999999999E-3</v>
       </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.3454372982674573E-10</v>
+      </c>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -810,8 +1068,24 @@
       <c r="G12" s="2">
         <v>85442310</v>
       </c>
+      <c r="H12" s="12">
+        <f t="shared" ref="H12" si="3">_xlfn.STDEV.P(G12:G16)/SQRT(5)</f>
+        <v>12575099.0725416</v>
+      </c>
       <c r="I12">
         <v>4.9740000000000001E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12" si="4">_xlfn.STDEV.P(I12:I16)/SQRT(5)</f>
+        <v>2.5173007766256294E-4</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8214718211621385E-11</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" ref="L12" si="5">_xlfn.STDEV.P(K12:K16)/SQRT(5)</f>
+        <v>6.5583124434488832E-11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -836,9 +1110,16 @@
       <c r="G13" s="2">
         <v>45213570</v>
       </c>
+      <c r="H13" s="6"/>
       <c r="I13">
         <v>4.5259999999999996E-3</v>
       </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0010269040909621E-10</v>
+      </c>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -862,9 +1143,16 @@
       <c r="G14" s="2">
         <v>24827940</v>
       </c>
+      <c r="H14" s="6"/>
       <c r="I14">
         <v>3.8860000000000001E-3</v>
       </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.565172140741439E-10</v>
+      </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -888,9 +1176,16 @@
       <c r="G15" s="2">
         <v>14292990</v>
       </c>
+      <c r="H15" s="6"/>
       <c r="I15">
         <v>3.8990000000000001E-3</v>
       </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7279106750931751E-10</v>
+      </c>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -914,11 +1209,29 @@
       <c r="G16" s="2">
         <v>7195128</v>
       </c>
+      <c r="H16" s="9"/>
       <c r="I16">
         <v>3.3540000000000002E-3</v>
       </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6614876066138089E-10</v>
+      </c>
+      <c r="L16" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="J12:J16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/ltukei_uw_edu/Documents/Desktop/GitHub/meta-analysis-for-VEGF-signaling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_F25DC773A252ABDACC104818815C681A5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D037E2C-5935-4B73-8606-BB6967F7402A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ADAEE-B4A8-4AE2-8E41-09554A347E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,26 +168,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -205,10 +200,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +480,7 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -542,27 +534,31 @@
       <c r="F2" s="2">
         <v>1877103</v>
       </c>
-      <c r="G2">
-        <f>969533.949486/SQRT(5)</f>
-        <v>433588.76350890863</v>
+      <c r="G2" s="2">
+        <f>Sheet2!H2</f>
+        <v>531040.68487961858</v>
       </c>
       <c r="H2" s="2">
         <v>3.1800000000000001E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>0.001559/SQRT(5)</f>
-        <v>6.9720599538443439E-4</v>
+        <f>Sheet2!J2</f>
+        <v>8.5380507143024184E-4</v>
       </c>
       <c r="J2" s="2">
         <f>H2/F2</f>
         <v>1.6940998975549024E-9</v>
       </c>
       <c r="K2" s="2">
-        <f>_xlfn.STDEV.P(Sheet2!K2:K6)/SQRT(5)</f>
-        <v>1.6402259694207648E-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>STDEV(Sheet2!K2:K6)/SQRT(5)</f>
+        <v>1.8338283830426609E-9</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -582,26 +578,30 @@
         <v>55473110</v>
       </c>
       <c r="G3" s="2">
-        <f>42530440/SQRT(5)</f>
-        <v>19020190.990595229</v>
+        <f>Sheet2!H7</f>
+        <v>21669633.776685923</v>
       </c>
       <c r="H3" s="2">
         <v>8.0490000000000006E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>0.004833/SQRT(5)</f>
-        <v>2.1613833070512965E-3</v>
+        <f>Sheet2!J7</f>
+        <v>2.6472572107749544E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J4" si="0">H3/F3</f>
         <v>1.4509732733571276E-10</v>
       </c>
       <c r="K3" s="2">
-        <f>_xlfn.STDEV.P(Sheet2!K7:K11)/SQRT(5)</f>
-        <v>5.1700620440230326E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f>STDEV(Sheet2!K7:K11)/SQRT(5)</f>
+        <v>5.7803050891635056E-11</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -621,24 +621,112 @@
         <v>35767540</v>
       </c>
       <c r="G4" s="2">
-        <f>26221830/SQRT(5)</f>
-        <v>11726758.874888662</v>
+        <f>Sheet2!H12</f>
+        <v>14059388.174998786</v>
       </c>
       <c r="H4" s="2">
         <v>4.1279999999999997E-3</v>
       </c>
       <c r="I4" s="2">
-        <f>0.000514/SQRT(5)</f>
-        <v>2.2986778808697838E-4</v>
+        <f>Sheet2!J12</f>
+        <v>2.8144278281739605E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>1.1541190699723826E-10</v>
       </c>
       <c r="K4" s="2">
-        <f>_xlfn.STDEV.P(Sheet2!K12:K16)/SQRT(5)</f>
-        <v>6.5583124434488832E-11</v>
-      </c>
+        <f>STDEV(Sheet2!K12:K16)/SQRT(5)</f>
+        <v>7.3324162206172232E-11</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -647,10 +735,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B17D59F-CF23-483A-8186-6066189E6A2C}">
-  <dimension ref="A1:L16"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,9 +747,10 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,355 +788,395 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <v>3683838</v>
       </c>
-      <c r="H2" s="12">
-        <f>_xlfn.STDEV.P(G2:G6)/SQRT(5)</f>
-        <v>474977.22808354895</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="H2" s="7">
+        <f>STDEV(G2:G6)/SQRT(5)</f>
+        <v>531040.68487961858</v>
+      </c>
+      <c r="I2" s="6">
         <v>1.544E-3</v>
       </c>
-      <c r="J2" s="3">
-        <f>_xlfn.STDEV.P(I2:I6)/SQRT(5)</f>
-        <v>7.6366647170083353E-4</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="J2" s="7">
+        <f>STDEV(I2:I6)/SQRT(5)</f>
+        <v>8.5380507143024184E-4</v>
+      </c>
+      <c r="K2" s="6">
         <f>I2/G2</f>
         <v>4.191280941235744E-10</v>
       </c>
-      <c r="L2" s="12">
-        <f>_xlfn.STDEV.P(K2:K6)/SQRT(5)</f>
-        <v>1.6402259694207648E-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="7">
+        <f>STDEV(K2:K6)/SQRT(5)</f>
+        <v>1.8338283830426609E-9</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>2273120</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4">
+      <c r="H3" s="8"/>
+      <c r="I3" s="2">
         <v>2.0179999999999998E-3</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5">
+      <c r="J3" s="8"/>
+      <c r="K3" s="2">
         <f t="shared" ref="K3:K16" si="0">I3/G3</f>
         <v>8.8776659393256835E-10</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>1710383</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4">
+      <c r="H4" s="8"/>
+      <c r="I4" s="2">
         <v>2.6770000000000001E-3</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5">
+      <c r="J4" s="8"/>
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>1.5651465198145679E-9</v>
       </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
         <v>19.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>1102344</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4">
+      <c r="H5" s="8"/>
+      <c r="I5" s="2">
         <v>3.2729999999999999E-3</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5">
+      <c r="J5" s="8"/>
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>2.9691276044501532E-9</v>
       </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3">
         <v>39</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>615787.69869300001</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>6.3879999999999996E-3</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="8">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>1.0373705115510478E-8</v>
       </c>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>119397500</v>
       </c>
-      <c r="H7" s="12">
-        <f>_xlfn.STDEV.P(G7:G11)/SQRT(5)</f>
-        <v>19381909.66887809</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="7">
+        <f>STDEV(G7:G11)/SQRT(5)</f>
+        <v>21669633.776685923</v>
+      </c>
+      <c r="I7" s="2">
         <v>1.7746000000000001E-2</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" ref="J7" si="1">_xlfn.STDEV.P(I7:I11)/SQRT(5)</f>
-        <v>2.3677788308877146E-3</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="7">
+        <f t="shared" ref="J7" si="1">STDEV(I7:I11)/SQRT(5)</f>
+        <v>2.6472572107749544E-3</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>1.4862957767122428E-10</v>
       </c>
-      <c r="L7" s="12">
-        <f t="shared" ref="L7" si="2">_xlfn.STDEV.P(K7:K11)/SQRT(5)</f>
-        <v>5.1700620440230326E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="L7" s="7">
+        <f t="shared" ref="L7" si="2">STDEV(K7:K11)/SQRT(5)</f>
+        <v>5.7803050891635056E-11</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>87856320</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4">
+      <c r="H8" s="8"/>
+      <c r="I8" s="2">
         <v>9.3930000000000003E-3</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5">
+      <c r="J8" s="8"/>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>1.0691319645530339E-10</v>
       </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>32306270</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4">
+      <c r="H9" s="8"/>
+      <c r="I9" s="2">
         <v>5.6150000000000002E-3</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5">
+      <c r="J9" s="8"/>
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>1.7380527061774697E-10</v>
       </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>18378530</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4">
+      <c r="H10" s="8"/>
+      <c r="I10" s="2">
         <v>4.5659999999999997E-3</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5">
+      <c r="J10" s="8"/>
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>2.4844206799999783E-10</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>6728897</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>2.9239999999999999E-3</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="8">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>4.3454372982674573E-10</v>
       </c>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1068,27 +1198,31 @@
       <c r="G12" s="2">
         <v>85442310</v>
       </c>
-      <c r="H12" s="12">
-        <f t="shared" ref="H12" si="3">_xlfn.STDEV.P(G12:G16)/SQRT(5)</f>
-        <v>12575099.0725416</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="7">
+        <f t="shared" ref="H12" si="3">STDEV(G12:G16)/SQRT(5)</f>
+        <v>14059388.174998786</v>
+      </c>
+      <c r="I12" s="2">
         <v>4.9740000000000001E-3</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" ref="J12" si="4">_xlfn.STDEV.P(I12:I16)/SQRT(5)</f>
-        <v>2.5173007766256294E-4</v>
+      <c r="J12" s="7">
+        <f t="shared" ref="J12" si="4">STDEV(I12:I16)/SQRT(5)</f>
+        <v>2.8144278281739605E-4</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
         <v>5.8214718211621385E-11</v>
       </c>
-      <c r="L12" s="12">
-        <f t="shared" ref="L12" si="5">_xlfn.STDEV.P(K12:K16)/SQRT(5)</f>
-        <v>6.5583124434488832E-11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="7">
+        <f t="shared" ref="L12" si="5">STDEV(K12:K16)/SQRT(5)</f>
+        <v>7.3324162206172232E-11</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1110,18 +1244,22 @@
       <c r="G13" s="2">
         <v>45213570</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13">
+      <c r="H13" s="8"/>
+      <c r="I13" s="2">
         <v>4.5259999999999996E-3</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
         <v>1.0010269040909621E-10</v>
       </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="8"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1143,18 +1281,22 @@
       <c r="G14" s="2">
         <v>24827940</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14">
+      <c r="H14" s="8"/>
+      <c r="I14" s="2">
         <v>3.8860000000000001E-3</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
         <v>1.565172140741439E-10</v>
       </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="8"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1176,18 +1318,22 @@
       <c r="G15" s="2">
         <v>14292990</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15">
+      <c r="H15" s="8"/>
+      <c r="I15" s="2">
         <v>3.8990000000000001E-3</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>2.7279106750931751E-10</v>
       </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="8"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1356,7 @@
         <v>7195128</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>3.3540000000000002E-3</v>
       </c>
       <c r="J16" s="9"/>
@@ -1219,6 +1365,46 @@
         <v>4.6614876066138089E-10</v>
       </c>
       <c r="L16" s="9"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18ADAEE-B4A8-4AE2-8E41-09554A347E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE2699-2B03-415A-B515-4D91A887A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="G3" s="2">
         <f>Sheet2!H7</f>
-        <v>21669633.776685923</v>
+        <v>23294878.560656402</v>
       </c>
       <c r="H3" s="2">
         <v>8.0490000000000006E-3</v>
@@ -594,7 +594,7 @@
       </c>
       <c r="K3" s="2">
         <f>STDEV(Sheet2!K7:K11)/SQRT(5)</f>
-        <v>5.7803050891635056E-11</v>
+        <v>5.8905524473255032E-11</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,11 +1002,11 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="2">
-        <v>119397500</v>
+        <v>128404400</v>
       </c>
       <c r="H7" s="7">
         <f>STDEV(G7:G11)/SQRT(5)</f>
-        <v>21669633.776685923</v>
+        <v>23294878.560656402</v>
       </c>
       <c r="I7" s="2">
         <v>1.7746000000000001E-2</v>
@@ -1017,11 +1017,11 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>1.4862957767122428E-10</v>
+        <v>1.3820398677926926E-10</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ref="L7" si="2">STDEV(K7:K11)/SQRT(5)</f>
-        <v>5.7803050891635056E-11</v>
+        <v>5.8905524473255032E-11</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>87856320</v>
+        <v>91080760</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="2">
@@ -1057,7 +1057,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0691319645530339E-10</v>
+        <v>1.0312825672513054E-10</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="2"/>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>32306270</v>
+        <v>32735990</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="2">
@@ -1094,7 +1094,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
-        <v>1.7380527061774697E-10</v>
+        <v>1.7152375718589846E-10</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="2"/>
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="2">
-        <v>18378530</v>
+        <v>18411490</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="2">
@@ -1131,7 +1131,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>2.4844206799999783E-10</v>
+        <v>2.479973103752059E-10</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="2"/>
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4">
-        <v>6728897</v>
+        <v>6732888</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="4">
@@ -1168,7 +1168,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>4.3454372982674573E-10</v>
+        <v>4.3428614882647682E-10</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="2"/>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE2699-2B03-415A-B515-4D91A887A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E16F718-BE48-4D4D-92DF-56C5FE65F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,8 +468,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,8 +546,8 @@
         <v>8.5380507143024184E-4</v>
       </c>
       <c r="J2" s="2">
-        <f>H2/F2</f>
-        <v>1.6940998975549024E-9</v>
+        <f>AVERAGE(Sheet2!I2:I6)/AVERAGE(Sheet2!G2:G6)</f>
+        <v>1.6941075330403121E-9</v>
       </c>
       <c r="K2" s="2">
         <f>STDEV(Sheet2!K2:K6)/SQRT(5)</f>
@@ -589,8 +589,8 @@
         <v>2.6472572107749544E-3</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J4" si="0">H3/F3</f>
-        <v>1.4509732733571276E-10</v>
+        <f>AVERAGE(Sheet2!I7:I11)/AVERAGE(Sheet2!G7:G11)</f>
+        <v>1.4509373349380319E-10</v>
       </c>
       <c r="K3" s="2">
         <f>STDEV(Sheet2!K7:K11)/SQRT(5)</f>
@@ -622,7 +622,7 @@
       </c>
       <c r="G4" s="2">
         <f>Sheet2!H12</f>
-        <v>14059388.174998786</v>
+        <v>14362286.542042786</v>
       </c>
       <c r="H4" s="2">
         <v>4.1279999999999997E-3</v>
@@ -632,12 +632,12 @@
         <v>2.8144278281739605E-4</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1541190699723826E-10</v>
+        <f>AVERAGE(Sheet2!I12:I16)/AVERAGE(Sheet2!G12:G16)</f>
+        <v>1.1540632953196808E-10</v>
       </c>
       <c r="K4" s="2">
         <f>STDEV(Sheet2!K12:K16)/SQRT(5)</f>
-        <v>7.3324162206172232E-11</v>
+        <v>7.3439181551013084E-11</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -738,8 +738,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,11 +1196,11 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="2">
-        <v>85442310</v>
+        <v>87144780</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ref="H12" si="3">STDEV(G12:G16)/SQRT(5)</f>
-        <v>14059388.174998786</v>
+        <v>14362286.542042786</v>
       </c>
       <c r="I12" s="2">
         <v>4.9740000000000001E-3</v>
@@ -1211,11 +1211,11 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>5.8214718211621385E-11</v>
+        <v>5.707742907836821E-11</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" ref="L12" si="5">STDEV(K12:K16)/SQRT(5)</f>
-        <v>7.3324162206172232E-11</v>
+        <v>7.3439181551013084E-11</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>45213570</v>
+        <v>45296290</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="2">
@@ -1251,7 +1251,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>1.0010269040909621E-10</v>
+        <v>9.9919883063270741E-11</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="2"/>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>24827940</v>
+        <v>24892240</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="2">
@@ -1288,7 +1288,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>1.565172140741439E-10</v>
+        <v>1.5611290908331271E-10</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="2"/>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>14292990</v>
+        <v>14307420</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="2">
@@ -1325,7 +1325,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>2.7279106750931751E-10</v>
+        <v>2.7251593928185515E-10</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="2"/>
@@ -1353,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="2">
-        <v>7195128</v>
+        <v>7196948</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="2">
@@ -1362,7 +1362,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>4.6614876066138089E-10</v>
+        <v>4.6603087864466993E-10</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E16F718-BE48-4D4D-92DF-56C5FE65F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C2255F-958C-4743-92E9-3E683262047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -536,7 +536,7 @@
       </c>
       <c r="G2" s="2">
         <f>Sheet2!H2</f>
-        <v>531040.68487961858</v>
+        <v>531039.6347962463</v>
       </c>
       <c r="H2" s="2">
         <v>3.1800000000000001E-3</v>
@@ -547,11 +547,11 @@
       </c>
       <c r="J2" s="2">
         <f>AVERAGE(Sheet2!I2:I6)/AVERAGE(Sheet2!G2:G6)</f>
-        <v>1.6941075330403121E-9</v>
+        <v>1.6941064500220108E-9</v>
       </c>
       <c r="K2" s="2">
         <f>STDEV(Sheet2!K2:K6)/SQRT(5)</f>
-        <v>1.8338283830426609E-9</v>
+        <v>1.8338287824784461E-9</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -738,8 +738,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,11 +808,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G2" s="6">
-        <v>3683838</v>
+        <v>3683832</v>
       </c>
       <c r="H2" s="7">
         <f>STDEV(G2:G6)/SQRT(5)</f>
-        <v>531040.68487961858</v>
+        <v>531039.6347962463</v>
       </c>
       <c r="I2" s="6">
         <v>1.544E-3</v>
@@ -823,11 +823,11 @@
       </c>
       <c r="K2" s="6">
         <f>I2/G2</f>
-        <v>4.191280941235744E-10</v>
+        <v>4.1912877677375084E-10</v>
       </c>
       <c r="L2" s="7">
         <f>STDEV(K2:K6)/SQRT(5)</f>
-        <v>1.8338283830426609E-9</v>
+        <v>1.8338287824784461E-9</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -854,7 +854,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" s="2">
-        <v>2273120</v>
+        <v>2273123</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="2">
@@ -863,7 +863,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K16" si="0">I3/G3</f>
-        <v>8.8776659393256835E-10</v>
+        <v>8.8776542228467171E-10</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="2"/>
@@ -891,7 +891,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G4" s="2">
-        <v>1710383</v>
+        <v>1710392</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="2">
@@ -900,7 +900,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5651465198145679E-9</v>
+        <v>1.5651382840892615E-9</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="2"/>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C2255F-958C-4743-92E9-3E683262047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4E94C-9EAC-45D9-8CF4-EB0CA4731944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
       </c>
       <c r="G2" s="2">
         <f>Sheet2!H2</f>
-        <v>531039.6347962463</v>
+        <v>531035.65379863582</v>
       </c>
       <c r="H2" s="2">
         <v>3.1800000000000001E-3</v>
@@ -547,11 +547,11 @@
       </c>
       <c r="J2" s="2">
         <f>AVERAGE(Sheet2!I2:I6)/AVERAGE(Sheet2!G2:G6)</f>
-        <v>1.6941064500220108E-9</v>
+        <v>1.6940999814534656E-9</v>
       </c>
       <c r="K2" s="2">
         <f>STDEV(Sheet2!K2:K6)/SQRT(5)</f>
-        <v>1.8338287824784461E-9</v>
+        <v>1.8337311851513098E-9</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="H2" s="7">
         <f>STDEV(G2:G6)/SQRT(5)</f>
-        <v>531039.6347962463</v>
+        <v>531035.65379863582</v>
       </c>
       <c r="I2" s="6">
         <v>1.544E-3</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="L2" s="7">
         <f>STDEV(K2:K6)/SQRT(5)</f>
-        <v>1.8338287824784461E-9</v>
+        <v>1.8337311851513098E-9</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -928,7 +928,7 @@
         <v>19.5</v>
       </c>
       <c r="G5" s="2">
-        <v>1102344</v>
+        <v>1102350</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="2">
@@ -937,7 +937,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>2.9691276044501532E-9</v>
+        <v>2.9691114437338413E-9</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="2"/>
@@ -965,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="G6" s="4">
-        <v>615787.69869300001</v>
+        <v>615817.53519199998</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="4">
@@ -974,7 +974,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>1.0373705115510478E-8</v>
+        <v>1.0373202507149045E-8</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="2"/>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4E94C-9EAC-45D9-8CF4-EB0CA4731944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A45DDD4-0EC4-4E82-B752-DD7AA02D5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14145" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="17280" windowHeight="10548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
   <si>
     <t xml:space="preserve">Reference </t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Concentration (nM)</t>
+  </si>
+  <si>
+    <t>Herve et al., 2008</t>
+  </si>
+  <si>
+    <t>Lu et al., 2023</t>
   </si>
 </sst>
 </file>
@@ -472,15 +478,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -558,7 +564,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -601,7 +607,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -644,7 +650,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -656,7 +662,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -668,7 +674,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -680,7 +686,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -692,7 +698,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -704,7 +710,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -716,7 +722,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -739,18 +745,18 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A8" sqref="A8:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,9 +794,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -834,9 +840,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -871,9 +877,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -908,9 +914,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -945,9 +951,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -982,9 +988,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1028,9 +1034,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1065,9 +1071,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1102,9 +1108,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1139,9 +1145,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -1176,9 +1182,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1222,9 +1228,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1259,9 +1265,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1296,9 +1302,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1333,9 +1339,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1370,7 +1376,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1382,7 +1388,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1394,7 +1400,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>

--- a/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
+++ b/data/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A45DDD4-0EC4-4E82-B752-DD7AA02D5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649523C-BBD1-4F22-99E6-713EB9A41322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="17280" windowHeight="10548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t xml:space="preserve">Reference </t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>Kd_SE</t>
-  </si>
-  <si>
-    <t>Herve et al. 2008</t>
-  </si>
-  <si>
-    <t>Lu et al. 2023</t>
   </si>
   <si>
     <t>VEGF165:VEGFR2</t>
@@ -474,8 +468,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,19 +517,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>1877103</v>
@@ -566,19 +560,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2">
         <v>55473110</v>
@@ -609,19 +603,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>35767540</v>
@@ -744,8 +738,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -796,19 +790,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5">
         <v>2.2999999999999998</v>
@@ -842,19 +836,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>4.5999999999999996</v>
@@ -879,19 +873,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>9.1999999999999993</v>
@@ -916,19 +910,19 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>19.5</v>
@@ -953,19 +947,19 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>39</v>
@@ -990,19 +984,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -1036,19 +1030,19 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1073,19 +1067,19 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1110,19 +1104,19 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1147,19 +1141,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>8</v>
@@ -1184,19 +1178,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -1230,19 +1224,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1267,19 +1261,19 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1304,19 +1298,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1341,19 +1335,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>8</v>
